--- a/p41_multiplier/mul3/multiplier_3bit.xlsx
+++ b/p41_multiplier/mul3/multiplier_3bit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alisy\Documents\GIT_HUB\Verilog\p41_multiplier\mul3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alisy\Documents\GIT_HUB\Verilog_\p41_multiplier\mul3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C0D77D-8037-4877-B272-84F98F41C20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B761218-9DE8-4155-B46D-F263E66F679F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4600305C-5C80-4507-9230-9718F749E595}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4600305C-5C80-4507-9230-9718F749E595}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>tc={A3AA0D98-6DC5-4303-A477-47FAB1A04E4B}</author>
   </authors>
   <commentList>
-    <comment ref="N20" authorId="0" shapeId="0" xr:uid="{A3AA0D98-6DC5-4303-A477-47FAB1A04E4B}">
+    <comment ref="N35" authorId="0" shapeId="0" xr:uid="{A3AA0D98-6DC5-4303-A477-47FAB1A04E4B}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -351,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -378,19 +378,16 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,7 +708,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="N20" dT="2023-07-04T18:14:03.71" personId="{5DBD6451-F188-4D8D-9312-6CD51772996D}" id="{A3AA0D98-6DC5-4303-A477-47FAB1A04E4B}">
+  <threadedComment ref="N35" dT="2023-07-04T18:14:03.71" personId="{5DBD6451-F188-4D8D-9312-6CD51772996D}" id="{A3AA0D98-6DC5-4303-A477-47FAB1A04E4B}">
     <text xml:space="preserve">THIS WILL ALWAYS BE ZERO. SO MAKE IT AS DUMMMY BIT IN DESIGN
 </text>
   </threadedComment>
@@ -720,15 +717,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9182A183-795D-4A07-ABC7-A288980A58A5}">
-  <dimension ref="A3:W76"/>
+  <dimension ref="A3:X76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="8.88671875" style="25"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>0</v>
       </c>
@@ -738,12 +738,17 @@
       <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -753,30 +758,32 @@
       <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26">
-        <v>1</v>
-      </c>
-      <c r="U5" s="26">
-        <v>1</v>
-      </c>
-      <c r="V5" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="K5" s="1"/>
+      <c r="L5" s="2"/>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>6</v>
       </c>
@@ -786,22 +793,27 @@
       <c r="F6" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27">
-        <v>1</v>
-      </c>
-      <c r="U6" s="27">
-        <v>1</v>
-      </c>
-      <c r="V6" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24">
+        <v>1</v>
+      </c>
+      <c r="W6" s="24">
+        <v>1</v>
+      </c>
+      <c r="X6" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -811,23 +823,26 @@
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="R7" s="28">
-        <v>1</v>
-      </c>
-      <c r="S7" s="28">
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
         <v>0</v>
       </c>
-      <c r="T7" s="29">
-        <v>1</v>
-      </c>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -837,63 +852,59 @@
       <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="R8" s="30">
-        <v>1</v>
-      </c>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26">
-        <v>1</v>
-      </c>
-      <c r="U8" s="26">
-        <v>1</v>
-      </c>
-      <c r="V8" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26">
-        <v>1</v>
-      </c>
-      <c r="T9" s="26">
-        <v>1</v>
-      </c>
-      <c r="U9" s="26">
-        <v>1</v>
-      </c>
-      <c r="V9" s="26"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="T8" s="4">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="R10" s="26">
-        <v>1</v>
-      </c>
-      <c r="S10" s="26">
-        <v>1</v>
-      </c>
-      <c r="T10" s="26">
-        <v>1</v>
-      </c>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
@@ -902,108 +913,126 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="2"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
-      <c r="Q12" s="7">
-        <v>1</v>
-      </c>
-      <c r="R12" s="5">
-        <v>1</v>
-      </c>
-      <c r="S12" s="4">
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="2"/>
+      <c r="S12" s="7">
+        <v>1</v>
+      </c>
+      <c r="T12" s="5">
+        <v>1</v>
+      </c>
+      <c r="U12" s="4">
         <v>0</v>
       </c>
-      <c r="T12" s="8">
+      <c r="V12" s="8">
         <v>0</v>
       </c>
-      <c r="U12" s="2">
+      <c r="W12" s="2">
         <v>0</v>
       </c>
-      <c r="V12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="25"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="7" t="s">
+      <c r="G13" s="27"/>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="T13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="U13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="T13" s="8" t="s">
+      <c r="V13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="U13" s="2" t="s">
+      <c r="W13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="V13" t="s">
+      <c r="X13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
       <c r="D14" s="8"/>
       <c r="E14" s="2"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="I14" s="5"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="2"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="22"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="I15" s="5"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="2"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="I16" s="5"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="2"/>
+      <c r="V16" s="6"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1022,117 +1051,82 @@
       <c r="F17" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="23"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="22"/>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J19" s="6"/>
       <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="N20" s="24"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V19" s="6"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V20" s="6"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="F25" t="s">
         <v>27</v>
       </c>
-      <c r="I25" t="s">
+      <c r="H25" s="25"/>
+      <c r="K25" t="s">
         <v>28</v>
       </c>
-      <c r="N25" t="s">
+      <c r="P25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C26" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="L26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="O26" s="9" t="s">
+      <c r="Q26" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C27" s="10" t="s">
         <v>31</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="L27" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="O27" s="11" t="s">
+      <c r="Q27" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>32</v>
       </c>
@@ -1145,472 +1139,135 @@
       <c r="F28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="L28" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O28" s="11" t="s">
+      <c r="Q28" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E29" s="15"/>
       <c r="F29" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="K29" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="14" t="s">
+      <c r="L29" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="O29" s="10" t="s">
+      <c r="Q29" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E30" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16" t="s">
+      <c r="H30" s="25"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M30" s="13" t="s">
+      <c r="O30" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="N30" s="14" t="s">
+      <c r="P30" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O30" s="14" t="s">
+      <c r="Q30" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D31" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="H31" s="25"/>
+      <c r="K31" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M31" s="15"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="16" t="s">
+      <c r="O31" s="15"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E32" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F32" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="M32" s="15"/>
-      <c r="N32" s="20" t="s">
+      <c r="H32" s="25"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="M33" s="21" t="s">
+    <row r="33" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="O33" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="H34" s="5" t="s">
+    <row r="34" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="J34" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="K34" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J34" s="19" t="s">
+      <c r="L34" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="N34" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
         <v>40</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="N35" s="22"/>
+      <c r="O35" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N35" s="5" t="s">
+      <c r="P35" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O35" s="19" t="s">
+      <c r="Q35" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+    </row>
+    <row r="54" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J54" s="6"/>
+    </row>
+    <row r="57" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J57" s="6"/>
+    </row>
+    <row r="72" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+    </row>
+    <row r="73" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D73" s="6"/>
-      <c r="H73" s="6"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J73" s="6"/>
+    </row>
+    <row r="76" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D76" s="8" t="s">
         <v>23</v>
       </c>
@@ -1620,13 +1277,13 @@
       <c r="F76" t="s">
         <v>25</v>
       </c>
-      <c r="H76" s="8" t="s">
+      <c r="J76" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="K76" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J76" t="s">
+      <c r="L76" t="s">
         <v>25</v>
       </c>
     </row>
